--- a/src/pptxbuilder/tests/xls/1.xlsx
+++ b/src/pptxbuilder/tests/xls/1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talhasch/Projects/pptxbuilder/src/pptxbuilder/tests/xls/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="5600" windowWidth="34160" windowHeight="15800" activeTab="1"/>
+    <workbookView xWindow="2480" yWindow="11360" windowWidth="29100" windowHeight="10820"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -12,10 +17,13 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -329,96 +337,96 @@
     </xf>
   </cellXfs>
   <cellStyles count="91">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,11 +707,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="93.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -714,7 +722,7 @@
     <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -820,7 +828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -903,7 +911,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -983,7 +991,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -1066,11 +1074,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1078,16 +1081,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1599,10 +1602,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>